--- a/sputnik/personal/uch/uch62.xlsx
+++ b/sputnik/personal/uch/uch62.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9780"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>Оплачено</t>
   </si>
@@ -24,9 +24,6 @@
     <t xml:space="preserve">Начислено </t>
   </si>
   <si>
-    <t>Наименование</t>
-  </si>
-  <si>
     <t>Начислен членский взнос 2018/2019 (с 01.05.2018 по 30.04.2019)</t>
   </si>
   <si>
@@ -40,13 +37,19 @@
   </si>
   <si>
     <t>Оплачен членский взнос 2019</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Наименование / садовый участок №62</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,13 +206,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -271,7 +276,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,10 +308,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -338,7 +342,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -514,17 +517,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A13"/>
+      <selection activeCell="D13" sqref="D6:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" style="1" customWidth="1"/>
@@ -533,12 +536,14 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1"/>
+    <row r="2" spans="1:4" ht="27" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>8</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -546,146 +551,143 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="18" customHeight="1">
       <c r="A3" s="16">
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="5">
         <v>9872.52</v>
       </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="18" customHeight="1">
       <c r="A4" s="16">
         <v>43274</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5">
         <v>1500</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="18" customHeight="1">
       <c r="A5" s="16">
         <v>43337</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5">
         <v>8372.52</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="17.25" customHeight="1">
       <c r="A6" s="17">
         <v>43557</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="8">
         <v>450</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" s="17">
         <v>43586</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="9">
         <v>9732.36</v>
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="17">
         <v>43634</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="10">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="17">
         <v>43646</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="10">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="17">
         <v>43665</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="10">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="17">
         <v>43695</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="10">
         <v>3200</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="17">
         <v>43725</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="10">
         <v>1682.36</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="17">
         <v>43745</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="7"/>
-      <c r="D13" s="15">
+      <c r="D13" s="14">
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="11"/>
       <c r="B14" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -693,12 +695,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -707,12 +709,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/uch/uch62.xlsx
+++ b/sputnik/personal/uch/uch62.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9780"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Оплачено</t>
   </si>
@@ -43,13 +43,16 @@
   </si>
   <si>
     <t>Наименование / садовый участок №62</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,7 +279,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -308,9 +311,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -342,6 +346,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -517,17 +522,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D6:D13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" style="1" customWidth="1"/>
@@ -536,8 +541,8 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1"/>
-    <row r="2" spans="1:4" ht="27" customHeight="1">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
@@ -551,7 +556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1">
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>43221</v>
       </c>
@@ -563,7 +568,7 @@
       </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1">
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>43274</v>
       </c>
@@ -575,7 +580,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1">
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>43337</v>
       </c>
@@ -587,7 +592,7 @@
         <v>8372.52</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17.25" customHeight="1">
+    <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>43557</v>
       </c>
@@ -599,7 +604,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+    <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>43586</v>
       </c>
@@ -611,7 +616,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>43634</v>
       </c>
@@ -623,7 +628,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>43646</v>
       </c>
@@ -635,7 +640,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>43665</v>
       </c>
@@ -647,7 +652,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>43695</v>
       </c>
@@ -659,7 +664,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>43725</v>
       </c>
@@ -671,7 +676,7 @@
         <v>1682.36</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>43745</v>
       </c>
@@ -683,9 +688,16 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>43952</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1">
+        <v>10950</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -695,12 +707,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -709,12 +721,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/uch/uch62.xlsx
+++ b/sputnik/personal/uch/uch62.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>Оплачено</t>
   </si>
@@ -83,7 +83,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -157,19 +157,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -184,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -204,12 +191,10 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -219,6 +204,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -526,10 +512,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -543,10 +529,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -557,7 +543,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+      <c r="A3" s="14">
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -569,7 +555,7 @@
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="A4" s="14">
         <v>43274</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -581,7 +567,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="A5" s="14">
         <v>43337</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -593,7 +579,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="A6" s="15">
         <v>43557</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -605,7 +591,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+      <c r="A7" s="15">
         <v>43586</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -617,7 +603,7 @@
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="A8" s="15">
         <v>43634</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -629,7 +615,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+      <c r="A9" s="15">
         <v>43646</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -641,7 +627,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+      <c r="A10" s="15">
         <v>43665</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -653,7 +639,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+      <c r="A11" s="15">
         <v>43695</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -665,7 +651,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+      <c r="A12" s="15">
         <v>43725</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -677,27 +663,58 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
+      <c r="A13" s="15">
         <v>43745</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="7"/>
-      <c r="D13" s="14">
+      <c r="D13" s="12">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="A14" s="16">
         <v>43952</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="7">
         <v>10950</v>
       </c>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
+        <v>44067</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch62.xlsx
+++ b/sputnik/personal/uch/uch62.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Оплачено</t>
   </si>
@@ -515,7 +515,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -699,10 +699,16 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
+      <c r="A16" s="16">
+        <v>44078</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+      <c r="D16" s="7">
+        <v>5000</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>

--- a/sputnik/personal/uch/uch62.xlsx
+++ b/sputnik/personal/uch/uch62.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Оплачено</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
   </si>
 </sst>
 </file>
@@ -69,7 +72,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -79,6 +82,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -171,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -188,13 +203,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -205,6 +216,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -512,10 +529,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -529,10 +546,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -543,7 +560,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+      <c r="A3" s="10">
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -555,7 +572,7 @@
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+      <c r="A4" s="10">
         <v>43274</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -567,7 +584,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+      <c r="A5" s="10">
         <v>43337</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -579,148 +596,164 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="A6" s="11">
         <v>43557</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="8">
+      <c r="D6" s="13">
         <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+      <c r="A7" s="11">
         <v>43586</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="17">
         <v>9732.36</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="11">
         <v>43634</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="7"/>
-      <c r="D8" s="10">
+      <c r="D8" s="15">
         <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+      <c r="A9" s="11">
         <v>43646</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="7"/>
-      <c r="D9" s="10">
+      <c r="D9" s="15">
         <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="A10" s="11">
         <v>43665</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="10">
+      <c r="D10" s="15">
         <v>2000</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="A11" s="11">
         <v>43695</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="7"/>
-      <c r="D11" s="10">
+      <c r="D11" s="15">
         <v>3200</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+      <c r="A12" s="11">
         <v>43725</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="7"/>
-      <c r="D12" s="10">
+      <c r="D12" s="15">
         <v>1682.36</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+      <c r="A13" s="11">
         <v>43745</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="7"/>
-      <c r="D13" s="12">
+      <c r="D13" s="16">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+      <c r="A14" s="12">
         <v>43952</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="18">
         <v>10950</v>
       </c>
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
+      <c r="A15" s="12">
+        <v>44032</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="18">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
         <v>44067</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
-        <v>44078</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="7"/>
-      <c r="D16" s="7">
+      <c r="D16" s="18">
         <v>5000</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="12">
+        <v>44078</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="D17" s="18">
+        <v>5000</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="A18" s="12">
+        <v>44317</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="7">
+        <v>11677.08</v>
+      </c>
       <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch62.xlsx
+++ b/sputnik/personal/uch/uch62.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>Оплачено</t>
   </si>
@@ -532,7 +532,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -750,10 +750,16 @@
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
+      <c r="A19" s="12">
+        <v>44404</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="D19" s="7">
+        <v>2847.08</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch62.xlsx
+++ b/sputnik/personal/uch/uch62.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Оплачено</t>
   </si>
@@ -186,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -222,6 +222,8 @@
     <xf numFmtId="2" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -529,10 +531,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D14" sqref="D14:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -701,7 +703,7 @@
       <c r="C14" s="18">
         <v>10950</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="19"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
@@ -709,7 +711,7 @@
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="18">
+      <c r="D15" s="20">
         <v>950</v>
       </c>
     </row>
@@ -721,7 +723,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="7"/>
-      <c r="D16" s="18">
+      <c r="D16" s="20">
         <v>5000</v>
       </c>
     </row>
@@ -733,7 +735,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="7"/>
-      <c r="D17" s="18">
+      <c r="D17" s="20">
         <v>5000</v>
       </c>
     </row>
@@ -747,7 +749,7 @@
       <c r="C18" s="7">
         <v>11677.08</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="19"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
@@ -757,9 +759,39 @@
         <v>3</v>
       </c>
       <c r="C19" s="7"/>
-      <c r="D19" s="7">
+      <c r="D19" s="19">
         <v>2847.08</v>
       </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>44452</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="19">
+        <v>8830</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="19"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="19"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
